--- a/experiment_results/DataV2_Results/Elevator/ENABLE_NORMALIZATION/AGGREGATION_GEOMETRIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_Results/Elevator/ENABLE_NORMALIZATION/AGGREGATION_GEOMETRIC_MEAN/4wise/1Bug.xlsx
@@ -593,13 +593,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -669,13 +669,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -707,13 +707,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -821,13 +821,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>18.97321428571428</v>
+        <v>15.40178571428572</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>85</v>
@@ -859,13 +859,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>15.40178571428572</v>
+        <v>10.04464285714286</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>69</v>
@@ -903,7 +903,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -941,7 +941,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -973,13 +973,13 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>8.482142857142858</v>
+        <v>5.580357142857143</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>38</v>
@@ -1011,13 +1011,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>26.33928571428572</v>
+        <v>19.86607142857143</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>118</v>
@@ -1125,13 +1125,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>3.794642857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -1163,13 +1163,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>4.017857142857143</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>18</v>
@@ -1201,13 +1201,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>18.75</v>
+        <v>13.61607142857143</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>84</v>
@@ -1239,13 +1239,13 @@
         <v>41</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>8.035714285714286</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>36</v>
@@ -1277,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -1404,13 +1404,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1480,13 +1480,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1518,13 +1518,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1600,7 +1600,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1632,13 +1632,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>14.28571428571428</v>
+        <v>12.05357142857143</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>64</v>
@@ -1670,13 +1670,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>16.51785714285714</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>74</v>
@@ -1714,7 +1714,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1752,7 +1752,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1790,7 +1790,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -1822,13 +1822,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2.008928571428572</v>
+        <v>1.5625</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -1936,13 +1936,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>3.794642857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -1974,13 +1974,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -2012,13 +2012,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2056,7 +2056,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -2088,13 +2088,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2215,13 +2215,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2291,13 +2291,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -2329,13 +2329,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8928571428571428</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -2411,7 +2411,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2443,13 +2443,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>14.28571428571428</v>
+        <v>12.05357142857143</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>64</v>
@@ -2481,13 +2481,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>17.63392857142857</v>
+        <v>11.38392857142857</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>79</v>
@@ -2525,7 +2525,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2563,7 +2563,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2601,7 +2601,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -2633,13 +2633,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>2.455357142857143</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -2747,13 +2747,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>3.794642857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -2785,13 +2785,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>3.125</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>14</v>
@@ -2823,13 +2823,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2867,7 +2867,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -2899,13 +2899,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -3026,13 +3026,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>39.95535714285715</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>179</v>
@@ -3102,13 +3102,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>85.04464285714286</v>
+        <v>43.52678571428572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>381</v>
@@ -3140,13 +3140,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>56.02678571428571</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>251</v>
@@ -3216,13 +3216,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>19.86607142857143</v>
+        <v>13.61607142857143</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>89</v>
@@ -3254,13 +3254,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>14.73214285714286</v>
+        <v>12.27678571428571</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>66</v>
@@ -3292,13 +3292,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="D10">
-        <v>63.61607142857143</v>
+        <v>30.13392857142857</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>285</v>
@@ -3336,7 +3336,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3368,13 +3368,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c r="D12">
-        <v>55.35714285714286</v>
+        <v>28.125</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>248</v>
@@ -3412,7 +3412,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -3444,13 +3444,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>8.035714285714286</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>36</v>
@@ -3558,13 +3558,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>4.017857142857143</v>
+        <v>2.901785714285714</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>18</v>
@@ -3596,13 +3596,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -3634,13 +3634,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3678,7 +3678,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -3710,13 +3710,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>55.80357142857143</v>
+        <v>7.8125</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>250</v>
@@ -3837,13 +3837,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>39.95535714285715</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>179</v>
@@ -3913,13 +3913,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>85.04464285714286</v>
+        <v>43.52678571428572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>381</v>
@@ -3951,13 +3951,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>251</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>56.02678571428571</v>
+        <v>7.366071428571429</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>251</v>
@@ -4027,13 +4027,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>19.86607142857143</v>
+        <v>13.61607142857143</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>89</v>
@@ -4065,13 +4065,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>14.73214285714286</v>
+        <v>12.27678571428571</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>66</v>
@@ -4103,13 +4103,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>285</v>
+        <v>135</v>
       </c>
       <c r="D10">
-        <v>63.61607142857143</v>
+        <v>30.13392857142857</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>285</v>
@@ -4147,7 +4147,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -4179,13 +4179,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c r="D12">
-        <v>55.35714285714286</v>
+        <v>28.125</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>248</v>
@@ -4223,7 +4223,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -4255,13 +4255,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>8.035714285714286</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>36</v>
@@ -4369,13 +4369,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>4.017857142857143</v>
+        <v>2.901785714285714</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>18</v>
@@ -4407,13 +4407,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -4445,13 +4445,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -4489,7 +4489,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -4521,13 +4521,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>55.80357142857143</v>
+        <v>7.8125</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>250</v>
@@ -4648,13 +4648,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -4724,13 +4724,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -4762,13 +4762,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -4844,7 +4844,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -4876,13 +4876,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>13.39285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -4914,13 +4914,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>12.94642857142857</v>
+        <v>9.375</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>58</v>
@@ -4958,7 +4958,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -4996,7 +4996,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -5034,7 +5034,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -5066,13 +5066,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>2.455357142857143</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -5180,13 +5180,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -5218,13 +5218,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -5256,13 +5256,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -5300,7 +5300,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -5332,13 +5332,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -5459,13 +5459,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -5535,13 +5535,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -5573,13 +5573,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -5655,7 +5655,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -5687,13 +5687,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>10.9375</v>
+        <v>9.375</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>49</v>
@@ -5731,7 +5731,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -5769,7 +5769,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -5807,7 +5807,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -5845,7 +5845,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -5883,7 +5883,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -5991,13 +5991,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -6029,13 +6029,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -6067,13 +6067,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -6111,7 +6111,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -6143,13 +6143,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.8928571428571428</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -6270,13 +6270,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>1.5625</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -6346,13 +6346,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>3.125</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -6384,13 +6384,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>4.464285714285714</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -6460,13 +6460,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>6.919642857142858</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>31</v>
@@ -6498,13 +6498,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>10.9375</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>49</v>
@@ -6536,13 +6536,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>11.38392857142857</v>
+        <v>6.473214285714286</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>51</v>
@@ -6574,13 +6574,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>9.375</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>42</v>
@@ -6612,13 +6612,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>8.035714285714286</v>
+        <v>4.017857142857143</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>36</v>
@@ -6656,7 +6656,7 @@
         <v>2.232142857142857</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -6694,7 +6694,7 @@
         <v>2.232142857142857</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -6802,13 +6802,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -6840,13 +6840,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -6878,13 +6878,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>2.678571428571428</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -6922,7 +6922,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -6954,13 +6954,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>4.464285714285714</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -7081,13 +7081,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>318</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>70.98214285714286</v>
+        <v>25.66964285714285</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>318</v>
@@ -7157,13 +7157,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>85.04464285714286</v>
+        <v>43.52678571428572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>381</v>
@@ -7195,13 +7195,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>322</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>71.875</v>
+        <v>10.26785714285714</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>322</v>
@@ -7271,13 +7271,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="D8">
-        <v>66.96428571428571</v>
+        <v>36.60714285714285</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -7309,13 +7309,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="D9">
-        <v>68.08035714285714</v>
+        <v>43.97321428571428</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>305</v>
@@ -7347,13 +7347,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>70.75892857142857</v>
+        <v>34.59821428571428</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>317</v>
@@ -7385,13 +7385,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>49.55357142857143</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>222</v>
@@ -7423,13 +7423,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="D12">
-        <v>69.86607142857143</v>
+        <v>38.39285714285715</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>313</v>
@@ -7467,7 +7467,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -7499,13 +7499,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="D14">
-        <v>79.01785714285714</v>
+        <v>41.51785714285715</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>354</v>
@@ -7613,13 +7613,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>49.10714285714285</v>
+        <v>23.4375</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>220</v>
@@ -7651,13 +7651,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="D18">
-        <v>47.76785714285715</v>
+        <v>22.99107142857143</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>214</v>
@@ -7689,13 +7689,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -7733,7 +7733,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -7765,13 +7765,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>324</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>72.32142857142857</v>
+        <v>13.39285714285714</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>324</v>
@@ -7892,13 +7892,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -7968,13 +7968,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -8006,13 +8006,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -8088,7 +8088,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -8120,13 +8120,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>14.28571428571428</v>
+        <v>12.05357142857143</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>64</v>
@@ -8158,13 +8158,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>17.1875</v>
+        <v>11.38392857142857</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>77</v>
@@ -8202,7 +8202,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -8240,7 +8240,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -8278,7 +8278,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -8310,13 +8310,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2.008928571428572</v>
+        <v>1.5625</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -8424,13 +8424,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>3.794642857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -8462,13 +8462,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -8500,13 +8500,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -8544,7 +8544,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -8576,13 +8576,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -8703,13 +8703,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -8779,13 +8779,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -8817,13 +8817,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -8899,7 +8899,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -8931,13 +8931,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>14.28571428571428</v>
+        <v>12.05357142857143</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>64</v>
@@ -8969,13 +8969,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>16.51785714285714</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>74</v>
@@ -9013,7 +9013,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -9051,7 +9051,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -9089,7 +9089,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -9121,13 +9121,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2.008928571428572</v>
+        <v>1.5625</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -9235,13 +9235,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>3.794642857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -9273,13 +9273,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -9311,13 +9311,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -9355,7 +9355,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -9387,13 +9387,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -9514,13 +9514,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -9590,13 +9590,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -9628,13 +9628,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -9710,7 +9710,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -9742,13 +9742,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>13.39285714285714</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -9780,13 +9780,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>12.27678571428571</v>
+        <v>9.375</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>55</v>
@@ -9824,7 +9824,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -9862,7 +9862,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -9900,7 +9900,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -9938,7 +9938,7 @@
         <v>0.8928571428571428</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -10046,13 +10046,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -10084,13 +10084,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -10122,13 +10122,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -10166,7 +10166,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -10198,13 +10198,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -10325,13 +10325,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>318</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>70.98214285714286</v>
+        <v>25.66964285714285</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>318</v>
@@ -10401,13 +10401,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>85.04464285714286</v>
+        <v>43.52678571428572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>381</v>
@@ -10439,13 +10439,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>322</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>71.875</v>
+        <v>10.26785714285714</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>322</v>
@@ -10515,13 +10515,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="D8">
-        <v>66.96428571428571</v>
+        <v>36.60714285714285</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -10553,13 +10553,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="D9">
-        <v>68.08035714285714</v>
+        <v>43.97321428571428</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>305</v>
@@ -10591,13 +10591,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>70.75892857142857</v>
+        <v>34.59821428571428</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>317</v>
@@ -10629,13 +10629,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>49.55357142857143</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>222</v>
@@ -10667,13 +10667,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="D12">
-        <v>69.86607142857143</v>
+        <v>38.39285714285715</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>313</v>
@@ -10711,7 +10711,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -10743,13 +10743,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="D14">
-        <v>79.91071428571429</v>
+        <v>41.96428571428572</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>358</v>
@@ -10857,13 +10857,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>49.10714285714285</v>
+        <v>23.4375</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>220</v>
@@ -10895,13 +10895,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>49.10714285714285</v>
+        <v>24.33035714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>220</v>
@@ -10933,13 +10933,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -10977,7 +10977,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -11009,13 +11009,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>326</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>72.76785714285714</v>
+        <v>13.39285714285714</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>326</v>
@@ -11136,13 +11136,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>318</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>70.98214285714286</v>
+        <v>25.66964285714285</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>318</v>
@@ -11212,13 +11212,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>85.04464285714286</v>
+        <v>43.52678571428572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>381</v>
@@ -11250,13 +11250,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>322</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>71.875</v>
+        <v>10.26785714285714</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>322</v>
@@ -11326,13 +11326,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="D8">
-        <v>66.96428571428571</v>
+        <v>36.60714285714285</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -11364,13 +11364,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="D9">
-        <v>68.08035714285714</v>
+        <v>43.97321428571428</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>305</v>
@@ -11402,13 +11402,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>70.75892857142857</v>
+        <v>34.59821428571428</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>317</v>
@@ -11440,13 +11440,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>49.55357142857143</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>222</v>
@@ -11478,13 +11478,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="D12">
-        <v>69.86607142857143</v>
+        <v>38.39285714285715</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>313</v>
@@ -11522,7 +11522,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -11554,13 +11554,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="D14">
-        <v>79.91071428571429</v>
+        <v>41.96428571428572</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>358</v>
@@ -11668,13 +11668,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>49.10714285714285</v>
+        <v>23.4375</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>220</v>
@@ -11706,13 +11706,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>49.10714285714285</v>
+        <v>24.33035714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>220</v>
@@ -11744,13 +11744,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -11788,7 +11788,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -11820,13 +11820,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>326</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>72.76785714285714</v>
+        <v>13.39285714285714</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>326</v>
@@ -11947,13 +11947,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>318</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>70.98214285714286</v>
+        <v>25.66964285714285</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>318</v>
@@ -12023,13 +12023,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>85.04464285714286</v>
+        <v>43.52678571428572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>381</v>
@@ -12061,13 +12061,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>322</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>71.875</v>
+        <v>10.26785714285714</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>322</v>
@@ -12137,13 +12137,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="D8">
-        <v>66.96428571428571</v>
+        <v>36.60714285714285</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -12175,13 +12175,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="D9">
-        <v>67.63392857142857</v>
+        <v>43.75</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>303</v>
@@ -12213,13 +12213,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>70.75892857142857</v>
+        <v>34.59821428571428</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>317</v>
@@ -12251,13 +12251,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>49.55357142857143</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>222</v>
@@ -12289,13 +12289,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="D12">
-        <v>69.86607142857143</v>
+        <v>38.39285714285715</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>313</v>
@@ -12333,7 +12333,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -12365,13 +12365,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>356</v>
+        <v>187</v>
       </c>
       <c r="D14">
-        <v>79.46428571428571</v>
+        <v>41.74107142857143</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>356</v>
@@ -12479,13 +12479,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>49.10714285714285</v>
+        <v>23.4375</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>220</v>
@@ -12517,13 +12517,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>49.10714285714285</v>
+        <v>24.33035714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>220</v>
@@ -12555,13 +12555,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -12599,7 +12599,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -12631,13 +12631,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>324</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>72.32142857142857</v>
+        <v>13.39285714285714</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>324</v>
@@ -12758,13 +12758,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -12834,13 +12834,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -12872,13 +12872,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -12954,7 +12954,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -12986,13 +12986,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>6.026785714285714</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>27</v>
@@ -13030,7 +13030,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -13068,7 +13068,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -13106,7 +13106,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -13144,7 +13144,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -13182,7 +13182,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -13290,13 +13290,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -13328,13 +13328,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -13366,13 +13366,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -13410,7 +13410,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -13442,13 +13442,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -13569,13 +13569,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -13645,13 +13645,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -13683,13 +13683,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.8928571428571428</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -13765,7 +13765,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -13797,13 +13797,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>12.72321428571428</v>
+        <v>10.9375</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>57</v>
@@ -13835,13 +13835,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>7.589285714285714</v>
+        <v>6.026785714285714</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>34</v>
@@ -13879,7 +13879,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -13917,7 +13917,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -13955,7 +13955,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -13987,13 +13987,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>2.901785714285714</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -14101,13 +14101,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -14139,13 +14139,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -14177,13 +14177,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -14221,7 +14221,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -14253,13 +14253,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -14380,13 +14380,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>318</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>70.98214285714286</v>
+        <v>25.66964285714285</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>318</v>
@@ -14456,13 +14456,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>85.04464285714286</v>
+        <v>43.52678571428572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>381</v>
@@ -14494,13 +14494,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>322</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>71.875</v>
+        <v>10.26785714285714</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>322</v>
@@ -14570,13 +14570,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="D8">
-        <v>66.96428571428571</v>
+        <v>36.60714285714285</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -14608,13 +14608,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="D9">
-        <v>68.08035714285714</v>
+        <v>43.97321428571428</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>305</v>
@@ -14646,13 +14646,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>70.75892857142857</v>
+        <v>34.59821428571428</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>317</v>
@@ -14684,13 +14684,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>49.55357142857143</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>222</v>
@@ -14722,13 +14722,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="D12">
-        <v>69.86607142857143</v>
+        <v>38.39285714285715</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>313</v>
@@ -14766,7 +14766,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -14798,13 +14798,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="D14">
-        <v>79.91071428571429</v>
+        <v>41.96428571428572</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>358</v>
@@ -14912,13 +14912,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>49.10714285714285</v>
+        <v>23.4375</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>220</v>
@@ -14950,13 +14950,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>49.10714285714285</v>
+        <v>24.33035714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>220</v>
@@ -14988,13 +14988,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -15032,7 +15032,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -15064,13 +15064,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>326</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>72.76785714285714</v>
+        <v>13.39285714285714</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>326</v>
@@ -15191,13 +15191,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <v>52.00892857142857</v>
+        <v>12.05357142857143</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>233</v>
@@ -15267,13 +15267,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>85.04464285714286</v>
+        <v>43.52678571428572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>381</v>
@@ -15305,13 +15305,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>65.625</v>
+        <v>9.151785714285714</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>294</v>
@@ -15381,13 +15381,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>23.66071428571428</v>
+        <v>15.84821428571428</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>106</v>
@@ -15419,13 +15419,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>12.72321428571428</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>57</v>
@@ -15457,13 +15457,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="D10">
-        <v>65.84821428571429</v>
+        <v>31.69642857142857</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>295</v>
@@ -15501,7 +15501,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -15533,13 +15533,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="D12">
-        <v>60.49107142857143</v>
+        <v>31.02678571428572</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>271</v>
@@ -15577,7 +15577,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -15609,13 +15609,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>7.589285714285714</v>
+        <v>6.473214285714286</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>34</v>
@@ -15723,13 +15723,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -15761,13 +15761,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -15799,13 +15799,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -15843,7 +15843,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -15875,13 +15875,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>299</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>66.74107142857143</v>
+        <v>10.26785714285714</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>299</v>
@@ -16002,13 +16002,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -16078,13 +16078,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -16116,13 +16116,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -16198,7 +16198,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -16230,13 +16230,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>14.28571428571428</v>
+        <v>12.05357142857143</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>64</v>
@@ -16268,13 +16268,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>16.51785714285714</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>74</v>
@@ -16312,7 +16312,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -16350,7 +16350,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -16388,7 +16388,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -16420,13 +16420,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2.008928571428572</v>
+        <v>1.5625</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -16534,13 +16534,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>3.794642857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -16572,13 +16572,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -16610,13 +16610,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -16654,7 +16654,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -16686,13 +16686,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -16813,13 +16813,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -16889,13 +16889,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -16927,13 +16927,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -17009,7 +17009,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -17041,13 +17041,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>14.28571428571428</v>
+        <v>12.05357142857143</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>64</v>
@@ -17079,13 +17079,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>17.1875</v>
+        <v>11.38392857142857</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>77</v>
@@ -17123,7 +17123,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -17161,7 +17161,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -17199,7 +17199,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -17231,13 +17231,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2.008928571428572</v>
+        <v>1.5625</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -17345,13 +17345,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>3.794642857142857</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>17</v>
@@ -17383,13 +17383,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -17421,13 +17421,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -17465,7 +17465,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -17497,13 +17497,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -17624,13 +17624,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -17700,13 +17700,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -17738,13 +17738,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -17820,7 +17820,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -17852,13 +17852,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>12.72321428571428</v>
+        <v>10.9375</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>57</v>
@@ -17890,13 +17890,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>3.125</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>14</v>
@@ -17934,7 +17934,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -17972,7 +17972,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -18010,7 +18010,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -18042,13 +18042,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>2.901785714285714</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -18156,13 +18156,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -18194,13 +18194,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -18232,13 +18232,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -18276,7 +18276,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -18308,13 +18308,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -18435,13 +18435,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -18511,13 +18511,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -18549,13 +18549,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -18631,7 +18631,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -18663,13 +18663,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>6.026785714285714</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>27</v>
@@ -18707,7 +18707,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -18745,7 +18745,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -18783,7 +18783,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -18821,7 +18821,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -18859,7 +18859,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -18967,13 +18967,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -19005,13 +19005,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -19043,13 +19043,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -19087,7 +19087,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -19119,13 +19119,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -19246,13 +19246,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -19322,13 +19322,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -19360,13 +19360,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -19442,7 +19442,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -19474,13 +19474,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>12.05357142857143</v>
+        <v>10.49107142857143</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>54</v>
@@ -19518,7 +19518,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -19556,7 +19556,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -19594,7 +19594,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -19632,7 +19632,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -19670,7 +19670,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -19778,13 +19778,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1.116071428571429</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -19816,13 +19816,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -19854,13 +19854,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -19898,7 +19898,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -19930,13 +19930,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -20057,13 +20057,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -20133,13 +20133,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -20171,13 +20171,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -20253,7 +20253,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -20285,13 +20285,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>20.75892857142857</v>
+        <v>16.51785714285714</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>93</v>
@@ -20323,13 +20323,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>17.41071428571428</v>
+        <v>11.38392857142857</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>78</v>
@@ -20367,7 +20367,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -20405,7 +20405,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -20437,13 +20437,13 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>8.482142857142858</v>
+        <v>5.580357142857143</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>38</v>
@@ -20475,13 +20475,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D14">
-        <v>26.33928571428572</v>
+        <v>19.86607142857143</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>118</v>
@@ -20589,13 +20589,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>4.6875</v>
+        <v>2.901785714285714</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>21</v>
@@ -20627,13 +20627,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>4.017857142857143</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>18</v>
@@ -20665,13 +20665,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>18.75</v>
+        <v>13.61607142857143</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>84</v>
@@ -20703,13 +20703,13 @@
         <v>41</v>
       </c>
       <c r="C20">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>8.035714285714286</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>36</v>
@@ -20741,13 +20741,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -20868,13 +20868,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -20944,13 +20944,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.339285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -20982,13 +20982,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -21064,7 +21064,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -21096,13 +21096,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>13.39285714285714</v>
+        <v>11.38392857142857</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>60</v>
@@ -21134,13 +21134,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>12.27678571428571</v>
+        <v>9.375</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>55</v>
@@ -21178,7 +21178,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -21216,7 +21216,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -21254,7 +21254,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -21292,7 +21292,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -21400,13 +21400,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -21438,13 +21438,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -21476,13 +21476,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -21520,7 +21520,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -21552,13 +21552,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1.339285714285714</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -21679,13 +21679,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>1.5625</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -21755,13 +21755,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>3.125</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -21793,13 +21793,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>4.464285714285714</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -21869,13 +21869,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>6.919642857142858</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>31</v>
@@ -21907,13 +21907,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>10.9375</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>49</v>
@@ -21945,13 +21945,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>11.38392857142857</v>
+        <v>6.473214285714286</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>51</v>
@@ -21983,13 +21983,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>9.375</v>
+        <v>5.133928571428571</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>42</v>
@@ -22021,13 +22021,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>8.035714285714286</v>
+        <v>4.017857142857143</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>36</v>
@@ -22065,7 +22065,7 @@
         <v>2.232142857142857</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -22103,7 +22103,7 @@
         <v>2.232142857142857</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -22211,13 +22211,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -22249,13 +22249,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -22287,13 +22287,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>2.678571428571428</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -22331,7 +22331,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -22363,13 +22363,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>4.464285714285714</v>
+        <v>2.008928571428572</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -22490,13 +22490,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>318</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>70.98214285714286</v>
+        <v>25.66964285714285</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>318</v>
@@ -22566,13 +22566,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>85.04464285714286</v>
+        <v>43.52678571428572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>381</v>
@@ -22604,13 +22604,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>322</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>71.875</v>
+        <v>10.26785714285714</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>322</v>
@@ -22680,13 +22680,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="D8">
-        <v>66.96428571428571</v>
+        <v>36.60714285714285</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -22718,13 +22718,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="D9">
-        <v>68.08035714285714</v>
+        <v>43.97321428571428</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>305</v>
@@ -22756,13 +22756,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>70.75892857142857</v>
+        <v>34.59821428571428</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>317</v>
@@ -22794,13 +22794,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>49.55357142857143</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>222</v>
@@ -22832,13 +22832,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="D12">
-        <v>69.86607142857143</v>
+        <v>38.39285714285715</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>313</v>
@@ -22876,7 +22876,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -22908,13 +22908,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="D14">
-        <v>79.91071428571429</v>
+        <v>41.96428571428572</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>358</v>
@@ -23022,13 +23022,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="D17">
-        <v>49.10714285714285</v>
+        <v>23.4375</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>220</v>
@@ -23060,13 +23060,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>220</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>49.10714285714285</v>
+        <v>24.33035714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>220</v>
@@ -23098,13 +23098,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -23142,7 +23142,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -23174,13 +23174,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>326</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>72.76785714285714</v>
+        <v>13.39285714285714</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>326</v>
@@ -23301,13 +23301,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="D3">
-        <v>70.98214285714286</v>
+        <v>25.89285714285715</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>318</v>
@@ -23377,13 +23377,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>381</v>
+        <v>195</v>
       </c>
       <c r="D5">
-        <v>85.04464285714286</v>
+        <v>43.52678571428572</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>381</v>
@@ -23415,13 +23415,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>322</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>71.875</v>
+        <v>10.26785714285714</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>322</v>
@@ -23491,13 +23491,13 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="D8">
-        <v>66.96428571428571</v>
+        <v>36.60714285714285</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>300</v>
@@ -23529,13 +23529,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="D9">
-        <v>68.08035714285714</v>
+        <v>43.97321428571428</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>305</v>
@@ -23567,13 +23567,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>317</v>
+        <v>155</v>
       </c>
       <c r="D10">
-        <v>70.75892857142857</v>
+        <v>34.59821428571428</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>317</v>
@@ -23605,13 +23605,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>49.55357142857143</v>
+        <v>2.455357142857143</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>222</v>
@@ -23643,13 +23643,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>313</v>
+        <v>172</v>
       </c>
       <c r="D12">
-        <v>69.86607142857143</v>
+        <v>38.39285714285715</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>313</v>
@@ -23687,7 +23687,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -23719,13 +23719,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="D14">
-        <v>80.35714285714286</v>
+        <v>42.1875</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>360</v>
@@ -23833,13 +23833,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="D17">
-        <v>49.55357142857143</v>
+        <v>23.66071428571428</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>222</v>
@@ -23871,13 +23871,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>49.55357142857143</v>
+        <v>24.55357142857143</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>222</v>
@@ -23909,13 +23909,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -23953,7 +23953,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -23985,13 +23985,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>326</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>72.76785714285714</v>
+        <v>13.39285714285714</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>326</v>
@@ -24112,13 +24112,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -24188,13 +24188,13 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>15.40178571428572</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="F5">
         <v>69</v>
@@ -24226,13 +24226,13 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -24308,7 +24308,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -24340,13 +24340,13 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>11.16071428571429</v>
+        <v>9.598214285714286</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -24384,7 +24384,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -24422,7 +24422,7 @@
         <v>1.116071428571429</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -24460,7 +24460,7 @@
         <v>0.4464285714285714</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -24498,7 +24498,7 @@
         <v>1.785714285714286</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -24530,13 +24530,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>2.008928571428572</v>
+        <v>1.5625</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -24644,13 +24644,13 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -24682,13 +24682,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0.8928571428571428</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -24720,13 +24720,13 @@
         <v>39</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -24764,7 +24764,7 @@
         <v>1.339285714285714</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -24796,13 +24796,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.8928571428571428</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>4</v>
